--- a/dynamic_context_server/ref/foundation/climate/climate_planets_huh.xlsx
+++ b/dynamic_context_server/ref/foundation/climate/climate_planets_huh.xlsx
@@ -12,25 +12,25 @@
     <sheet name="Iso_s" sheetId="2" r:id="rId3"/>
     <sheet name="Mars Metric" sheetId="5" r:id="rId4"/>
     <sheet name="Venus_1.5" sheetId="7" r:id="rId5"/>
-    <sheet name="Venus_Pressure (2)" sheetId="9" r:id="rId6"/>
+    <sheet name="Venus_Pressure_cp" sheetId="9" r:id="rId6"/>
     <sheet name="specific heat" sheetId="10" r:id="rId7"/>
     <sheet name="bigPlanets" sheetId="11" r:id="rId8"/>
     <sheet name="venusWiki" sheetId="12" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="Gravity" localSheetId="5">'Venus_Pressure (2)'!$H$2</definedName>
+    <definedName name="Gravity" localSheetId="5">Venus_Pressure_cp!$H$2</definedName>
     <definedName name="Gravity">Venus_1.5!$F$2</definedName>
-    <definedName name="MW" localSheetId="5">'Venus_Pressure (2)'!$H$3</definedName>
+    <definedName name="MW" localSheetId="5">Venus_Pressure_cp!$H$3</definedName>
     <definedName name="MW">Venus_1.5!$F$3</definedName>
-    <definedName name="n" localSheetId="5">'Venus_Pressure (2)'!$B$2</definedName>
+    <definedName name="n" localSheetId="5">Venus_Pressure_cp!$B$2</definedName>
     <definedName name="n">Venus_1.5!$B$2</definedName>
-    <definedName name="P_0" localSheetId="5">'Venus_Pressure (2)'!$A$6</definedName>
+    <definedName name="P_0" localSheetId="5">Venus_Pressure_cp!$A$6</definedName>
     <definedName name="P_0">Venus_1.5!$A$6</definedName>
-    <definedName name="R_gas" localSheetId="5">'Venus_Pressure (2)'!$H$1</definedName>
+    <definedName name="R_gas" localSheetId="5">Venus_Pressure_cp!$H$1</definedName>
     <definedName name="R_gas">Venus_1.5!$F$1</definedName>
-    <definedName name="T_0" localSheetId="5">'Venus_Pressure (2)'!$A$5</definedName>
+    <definedName name="T_0" localSheetId="5">Venus_Pressure_cp!$A$5</definedName>
     <definedName name="T_0">Venus_1.5!$A$5</definedName>
-    <definedName name="Z_0" localSheetId="5">'Venus_Pressure (2)'!$A$4</definedName>
+    <definedName name="Z_0" localSheetId="5">Venus_Pressure_cp!$A$4</definedName>
     <definedName name="Z_0">Venus_1.5!$A$4</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
@@ -3182,7 +3182,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Venus_Pressure (2)'!$A$9</c:f>
+              <c:f>Venus_Pressure_cp!$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3203,7 +3203,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Venus_Pressure (2)'!$C$10:$C$110</c:f>
+              <c:f>Venus_Pressure_cp!$C$10:$C$110</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
@@ -3476,7 +3476,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Venus_Pressure (2)'!$A$10:$A$110</c:f>
+              <c:f>Venus_Pressure_cp!$A$10:$A$110</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
@@ -3754,7 +3754,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Venus_Pressure (2)'!$F$9</c:f>
+              <c:f>Venus_Pressure_cp!$F$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3779,7 +3779,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Venus_Pressure (2)'!$F$10:$F$110</c:f>
+              <c:f>Venus_Pressure_cp!$F$10:$F$110</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
@@ -3824,7 +3824,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Venus_Pressure (2)'!$A$10:$A$110</c:f>
+              <c:f>Venus_Pressure_cp!$A$10:$A$110</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
@@ -4108,7 +4108,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Venus_Pressure (2)'!$C$10:$C$110</c:f>
+              <c:f>Venus_Pressure_cp!$C$10:$C$110</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
@@ -4381,7 +4381,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Venus_Pressure (2)'!$D$10:$D$110</c:f>
+              <c:f>Venus_Pressure_cp!$D$10:$D$110</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
@@ -4832,7 +4832,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Venus_Pressure (2)'!$A$9</c:f>
+              <c:f>Venus_Pressure_cp!$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4853,7 +4853,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Venus_Pressure (2)'!$C$10:$C$110</c:f>
+              <c:f>Venus_Pressure_cp!$C$10:$C$110</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
@@ -5126,7 +5126,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Venus_Pressure (2)'!$A$10:$A$110</c:f>
+              <c:f>Venus_Pressure_cp!$A$10:$A$110</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
@@ -5404,7 +5404,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Venus_Pressure (2)'!$F$9</c:f>
+              <c:f>Venus_Pressure_cp!$F$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5429,7 +5429,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Venus_Pressure (2)'!$F$10:$F$110</c:f>
+              <c:f>Venus_Pressure_cp!$F$10:$F$110</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
@@ -5474,7 +5474,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Venus_Pressure (2)'!$A$10:$A$110</c:f>
+              <c:f>Venus_Pressure_cp!$A$10:$A$110</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
@@ -5758,7 +5758,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Venus_Pressure (2)'!$C$10:$C$110</c:f>
+              <c:f>Venus_Pressure_cp!$C$10:$C$110</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
@@ -6031,7 +6031,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Venus_Pressure (2)'!$D$10:$D$110</c:f>
+              <c:f>Venus_Pressure_cp!$D$10:$D$110</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
@@ -13990,7 +13990,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Venus_Pressure (2)'!$A$9</c:f>
+              <c:f>Venus_Pressure_cp!$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -14011,7 +14011,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Venus_Pressure (2)'!$B$10:$B$110</c:f>
+              <c:f>Venus_Pressure_cp!$B$10:$B$110</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
@@ -14284,7 +14284,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Venus_Pressure (2)'!$A$10:$A$110</c:f>
+              <c:f>Venus_Pressure_cp!$A$10:$A$110</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
@@ -14562,7 +14562,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Venus_Pressure (2)'!$G$9</c:f>
+              <c:f>Venus_Pressure_cp!$G$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -14587,7 +14587,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Venus_Pressure (2)'!$G$10:$G$110</c:f>
+              <c:f>Venus_Pressure_cp!$G$10:$G$110</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
@@ -14623,7 +14623,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Venus_Pressure (2)'!$A$10:$A$110</c:f>
+              <c:f>Venus_Pressure_cp!$A$10:$A$110</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
@@ -14907,7 +14907,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Venus_Pressure (2)'!$E$10:$E$110</c:f>
+              <c:f>Venus_Pressure_cp!$E$10:$E$110</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
@@ -15180,7 +15180,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Venus_Pressure (2)'!$D$10:$D$110</c:f>
+              <c:f>Venus_Pressure_cp!$D$10:$D$110</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
@@ -15672,7 +15672,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Venus_Pressure (2)'!$B$8:$C$8</c:f>
+              <c:f>Venus_Pressure_cp!$B$8:$C$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -15689,7 +15689,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Venus_Pressure (2)'!$C$10:$C$97</c:f>
+              <c:f>Venus_Pressure_cp!$C$10:$C$97</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="88"/>
@@ -15962,7 +15962,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Venus_Pressure (2)'!$B$10:$B$97</c:f>
+              <c:f>Venus_Pressure_cp!$B$10:$B$97</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="88"/>
@@ -16240,7 +16240,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Venus_Pressure (2)'!$J$8</c:f>
+              <c:f>Venus_Pressure_cp!$J$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -16284,7 +16284,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Venus_Pressure (2)'!$K$10:$K$39</c:f>
+              <c:f>Venus_Pressure_cp!$K$10:$K$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -16347,7 +16347,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Venus_Pressure (2)'!$L$10:$L$41</c:f>
+              <c:f>Venus_Pressure_cp!$L$10:$L$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
@@ -16415,7 +16415,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Venus_Pressure (2)'!$F$7:$F$9</c:f>
+              <c:f>Venus_Pressure_cp!$F$7:$F$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -16454,7 +16454,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Venus_Pressure (2)'!$F$10:$F$110</c:f>
+              <c:f>Venus_Pressure_cp!$F$10:$F$110</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
@@ -16499,7 +16499,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Venus_Pressure (2)'!$G$10:$G$110</c:f>
+              <c:f>Venus_Pressure_cp!$G$10:$G$110</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
@@ -16546,7 +16546,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Venus_Pressure (2)'!$C$10:$C$97</c:f>
+              <c:f>Venus_Pressure_cp!$C$10:$C$97</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="88"/>
@@ -16819,7 +16819,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Venus_Pressure (2)'!$E$10:$E$97</c:f>
+              <c:f>Venus_Pressure_cp!$E$10:$E$97</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="88"/>
@@ -17853,15 +17853,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>408214</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>54428</xdr:rowOff>
+      <xdr:colOff>353785</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>163286</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>560385</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>35377</xdr:rowOff>
+      <xdr:colOff>505956</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>144235</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -25356,7 +25356,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q110"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="J63" sqref="J63"/>
     </sheetView>
   </sheetViews>
@@ -27285,7 +27285,7 @@
   <dimension ref="A1:S97"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29805,8 +29805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
